--- a/loaded_influencer_data/alya.lott/alya.lott_video.xlsx
+++ b/loaded_influencer_data/alya.lott/alya.lott_video.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N45"/>
+  <dimension ref="A1:N51"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -506,13 +506,13 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="inlineStr">
+      <c r="A2" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@alya.lott/video/7428022961069853998</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2157</v>
+        <v>2245</v>
       </c>
       <c r="C2" t="n">
         <v>47</v>
@@ -532,19 +532,19 @@
         </is>
       </c>
       <c r="H2" t="n">
-        <v>2.735280482151136</v>
+        <v>2.628062360801782</v>
       </c>
       <c r="I2" t="n">
-        <v>2.178952248493278</v>
+        <v>2.093541202672606</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>0.5563282336578581</v>
+        <v>0.5345211581291759</v>
       </c>
       <c r="L2" t="n">
-        <v>0.04636068613815484</v>
+        <v>0.044543429844098</v>
       </c>
       <c r="M2" t="inlineStr">
         <is>
@@ -558,16 +558,16 @@
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="inlineStr">
+      <c r="A3" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@alya.lott/video/7433994702095011115</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>2162</v>
+        <v>2258</v>
       </c>
       <c r="C3" t="n">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="D3" t="n">
         <v>1</v>
@@ -584,19 +584,19 @@
         </is>
       </c>
       <c r="H3" t="n">
-        <v>3.330249768732655</v>
+        <v>3.232949512843224</v>
       </c>
       <c r="I3" t="n">
-        <v>3.283996299722479</v>
+        <v>3.188662533215235</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>0.04625346901017577</v>
+        <v>0.04428697962798937</v>
       </c>
       <c r="L3" t="n">
-        <v>0.6475485661424607</v>
+        <v>0.6200177147918512</v>
       </c>
       <c r="M3" t="inlineStr">
         <is>
@@ -610,13 +610,13 @@
       </c>
     </row>
     <row r="4">
-      <c r="A4" t="inlineStr">
+      <c r="A4" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@alya.lott/video/7435497224362151211</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>2315</v>
+        <v>2414</v>
       </c>
       <c r="C4" t="n">
         <v>32</v>
@@ -636,19 +636,19 @@
         </is>
       </c>
       <c r="H4" t="n">
-        <v>1.42548596112311</v>
+        <v>1.367025683512842</v>
       </c>
       <c r="I4" t="n">
-        <v>1.382289416846652</v>
+        <v>1.325600662800331</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>0.04319654427645788</v>
+        <v>0.04142502071251036</v>
       </c>
       <c r="L4" t="n">
-        <v>0.04319654427645788</v>
+        <v>0.04142502071251036</v>
       </c>
       <c r="M4" t="inlineStr">
         <is>
@@ -662,117 +662,117 @@
       </c>
     </row>
     <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>https://www.tiktok.com/@alya.lott/video/7486988135386221870</t>
+      <c r="A5" s="1" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@alya.lott/video/7489644258736082222</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>196</v>
+        <v>626</v>
       </c>
       <c r="C5" t="n">
+        <v>11</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0</v>
+      </c>
+      <c r="F5" t="n">
+        <v>2</v>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>and it gree like 2 inches #tiktokshop #tiktokshopsale #hairfrowth #shinyhair</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>1.757188498402556</v>
+      </c>
+      <c r="I5" t="n">
+        <v>1.757188498402556</v>
+      </c>
+      <c r="J5" t="n">
+        <v>0</v>
+      </c>
+      <c r="K5" t="n">
+        <v>0</v>
+      </c>
+      <c r="L5" t="n">
+        <v>0.3194888178913738</v>
+      </c>
+      <c r="M5" t="n">
+        <v>0</v>
+      </c>
+      <c r="N5" t="inlineStr">
+        <is>
+          <t>2025-04-05</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@alya.lott/video/7489581712012348718</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>542</v>
+      </c>
+      <c r="C6" t="n">
+        <v>9</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0</v>
+      </c>
+      <c r="E6" t="n">
+        <v>0</v>
+      </c>
+      <c r="F6" t="n">
+        <v>0</v>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>gurl grab it ehile its in sale its udually like $60 #tiktokshopsale #tiktokshop #yaraperfume</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>1.660516605166052</v>
+      </c>
+      <c r="I6" t="n">
+        <v>1.660516605166052</v>
+      </c>
+      <c r="J6" t="n">
+        <v>0</v>
+      </c>
+      <c r="K6" t="n">
+        <v>0</v>
+      </c>
+      <c r="L6" t="n">
+        <v>0</v>
+      </c>
+      <c r="M6" t="n">
+        <v>0</v>
+      </c>
+      <c r="N6" t="inlineStr">
+        <is>
+          <t>2025-04-05</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@alya.lott/video/7489524007943900458</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>581</v>
+      </c>
+      <c r="C7" t="n">
         <v>4</v>
       </c>
-      <c r="D5" t="n">
-        <v>0</v>
-      </c>
-      <c r="E5" t="n">
-        <v>0</v>
-      </c>
-      <c r="F5" t="n">
-        <v>0</v>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>the eyes chico, they never lie</t>
-        </is>
-      </c>
-      <c r="H5" t="n">
-        <v>2.040816326530612</v>
-      </c>
-      <c r="I5" t="n">
-        <v>2.040816326530612</v>
-      </c>
-      <c r="J5" t="n">
-        <v>0</v>
-      </c>
-      <c r="K5" t="n">
-        <v>0</v>
-      </c>
-      <c r="L5" t="n">
-        <v>0</v>
-      </c>
-      <c r="M5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N5" t="inlineStr">
-        <is>
-          <t>2025-03-29</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>https://www.tiktok.com/@alya.lott/video/7485851135627037998</t>
-        </is>
-      </c>
-      <c r="B6" t="n">
-        <v>971</v>
-      </c>
-      <c r="C6" t="n">
-        <v>28</v>
-      </c>
-      <c r="D6" t="n">
-        <v>0</v>
-      </c>
-      <c r="E6" t="n">
-        <v>0</v>
-      </c>
-      <c r="F6" t="n">
-        <v>0</v>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>and it tastes SO GOOD #tiktokshopsale #tiktokshop #summerbody</t>
-        </is>
-      </c>
-      <c r="H6" t="n">
-        <v>2.883625128733265</v>
-      </c>
-      <c r="I6" t="n">
-        <v>2.883625128733265</v>
-      </c>
-      <c r="J6" t="n">
-        <v>0</v>
-      </c>
-      <c r="K6" t="n">
-        <v>0</v>
-      </c>
-      <c r="L6" t="n">
-        <v>0</v>
-      </c>
-      <c r="M6" t="n">
-        <v>0</v>
-      </c>
-      <c r="N6" t="inlineStr">
-        <is>
-          <t>2025-03-26</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>https://www.tiktok.com/@alya.lott/video/7484295289197694250</t>
-        </is>
-      </c>
-      <c r="B7" t="n">
-        <v>12100</v>
-      </c>
-      <c r="C7" t="n">
-        <v>38</v>
-      </c>
       <c r="D7" t="n">
         <v>0</v>
       </c>
@@ -780,18 +780,18 @@
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>and tiktok shop is giving 20% off ON TOP OF THAT RN #tiktokshopsale #tiktokshopspringglowup</t>
+          <t>i got this glass skin set for $200 at the store are u joking #tiktokshop #tiktokshopsale #glassskin</t>
         </is>
       </c>
       <c r="H7" t="n">
-        <v>0.3140495867768595</v>
+        <v>0.6884681583476765</v>
       </c>
       <c r="I7" t="n">
-        <v>0.3140495867768595</v>
+        <v>0.6884681583476765</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -800,25 +800,25 @@
         <v>0</v>
       </c>
       <c r="L7" t="n">
-        <v>0.01652892561983471</v>
+        <v>0</v>
       </c>
       <c r="M7" t="n">
         <v>0</v>
       </c>
       <c r="N7" t="inlineStr">
         <is>
-          <t>2025-03-22</t>
+          <t>2025-04-05</t>
         </is>
       </c>
     </row>
     <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>https://www.tiktok.com/@alya.lott/video/7483963969456246062</t>
+      <c r="A8" s="1" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@alya.lott/video/7489508192536530222</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1254</v>
+        <v>653</v>
       </c>
       <c r="C8" t="n">
         <v>18</v>
@@ -830,601 +830,601 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
+        <v>0</v>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>i got this glass skin set for $200 at the store are u joking #tiktokshop #tiktokshopsale #glassskin</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>2.756508422664625</v>
+      </c>
+      <c r="I8" t="n">
+        <v>2.756508422664625</v>
+      </c>
+      <c r="J8" t="n">
+        <v>0</v>
+      </c>
+      <c r="K8" t="n">
+        <v>0</v>
+      </c>
+      <c r="L8" t="n">
+        <v>0</v>
+      </c>
+      <c r="M8" t="n">
+        <v>0</v>
+      </c>
+      <c r="N8" t="inlineStr">
+        <is>
+          <t>2025-04-05</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@alya.lott/video/7489174431789763886</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>564</v>
+      </c>
+      <c r="C9" t="n">
+        <v>9</v>
+      </c>
+      <c r="D9" t="n">
+        <v>0</v>
+      </c>
+      <c r="E9" t="n">
+        <v>0</v>
+      </c>
+      <c r="F9" t="n">
+        <v>0</v>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>like omg i got it for $200 in the store 😭😭 #tiktokshop #tiktokshopsale #acneskincare</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>1.595744680851064</v>
+      </c>
+      <c r="I9" t="n">
+        <v>1.595744680851064</v>
+      </c>
+      <c r="J9" t="n">
+        <v>0</v>
+      </c>
+      <c r="K9" t="n">
+        <v>0</v>
+      </c>
+      <c r="L9" t="n">
+        <v>0</v>
+      </c>
+      <c r="M9" t="n">
+        <v>0</v>
+      </c>
+      <c r="N9" t="inlineStr">
+        <is>
+          <t>2025-04-04</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@alya.lott/video/7489116354100874542</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>593</v>
+      </c>
+      <c r="C10" t="n">
+        <v>12</v>
+      </c>
+      <c r="D10" t="n">
+        <v>0</v>
+      </c>
+      <c r="E10" t="n">
+        <v>0</v>
+      </c>
+      <c r="F10" t="n">
         <v>2</v>
       </c>
-      <c r="G8" t="inlineStr">
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>oh how i wish i know about this earlier😭 #tiktokshopsale #tiktokshop #highcortisol</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>2.023608768971332</v>
+      </c>
+      <c r="I10" t="n">
+        <v>2.023608768971332</v>
+      </c>
+      <c r="J10" t="n">
+        <v>0</v>
+      </c>
+      <c r="K10" t="n">
+        <v>0</v>
+      </c>
+      <c r="L10" t="n">
+        <v>0.3372681281618887</v>
+      </c>
+      <c r="M10" t="n">
+        <v>0</v>
+      </c>
+      <c r="N10" t="inlineStr">
+        <is>
+          <t>2025-04-04</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@alya.lott/video/7486988135386221870</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>196</v>
+      </c>
+      <c r="C11" t="n">
+        <v>4</v>
+      </c>
+      <c r="D11" t="n">
+        <v>0</v>
+      </c>
+      <c r="E11" t="n">
+        <v>0</v>
+      </c>
+      <c r="F11" t="n">
+        <v>0</v>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>the eyes chico, they never lie</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>2.040816326530612</v>
+      </c>
+      <c r="I11" t="n">
+        <v>2.040816326530612</v>
+      </c>
+      <c r="J11" t="n">
+        <v>0</v>
+      </c>
+      <c r="K11" t="n">
+        <v>0</v>
+      </c>
+      <c r="L11" t="n">
+        <v>0</v>
+      </c>
+      <c r="M11" t="n">
+        <v>0</v>
+      </c>
+      <c r="N11" t="inlineStr">
+        <is>
+          <t>2025-03-29</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@alya.lott/video/7485851135627037998</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>971</v>
+      </c>
+      <c r="C12" t="n">
+        <v>28</v>
+      </c>
+      <c r="D12" t="n">
+        <v>0</v>
+      </c>
+      <c r="E12" t="n">
+        <v>0</v>
+      </c>
+      <c r="F12" t="n">
+        <v>0</v>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>and it tastes SO GOOD #tiktokshopsale #tiktokshop #summerbody</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>2.883625128733265</v>
+      </c>
+      <c r="I12" t="n">
+        <v>2.883625128733265</v>
+      </c>
+      <c r="J12" t="n">
+        <v>0</v>
+      </c>
+      <c r="K12" t="n">
+        <v>0</v>
+      </c>
+      <c r="L12" t="n">
+        <v>0</v>
+      </c>
+      <c r="M12" t="n">
+        <v>0</v>
+      </c>
+      <c r="N12" t="inlineStr">
+        <is>
+          <t>2025-03-26</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@alya.lott/video/7484295289197694250</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>12100</v>
+      </c>
+      <c r="C13" t="n">
+        <v>38</v>
+      </c>
+      <c r="D13" t="n">
+        <v>0</v>
+      </c>
+      <c r="E13" t="n">
+        <v>0</v>
+      </c>
+      <c r="F13" t="n">
+        <v>2</v>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>and tiktok shop is giving 20% off ON TOP OF THAT RN #tiktokshopsale #tiktokshopspringglowup</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>0.3140495867768595</v>
+      </c>
+      <c r="I13" t="n">
+        <v>0.3140495867768595</v>
+      </c>
+      <c r="J13" t="n">
+        <v>0</v>
+      </c>
+      <c r="K13" t="n">
+        <v>0</v>
+      </c>
+      <c r="L13" t="n">
+        <v>0.01652892561983471</v>
+      </c>
+      <c r="M13" t="n">
+        <v>0</v>
+      </c>
+      <c r="N13" t="inlineStr">
+        <is>
+          <t>2025-03-22</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@alya.lott/video/7483963969456246062</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>1254</v>
+      </c>
+      <c r="C14" t="n">
+        <v>18</v>
+      </c>
+      <c r="D14" t="n">
+        <v>0</v>
+      </c>
+      <c r="E14" t="n">
+        <v>0</v>
+      </c>
+      <c r="F14" t="n">
+        <v>2</v>
+      </c>
+      <c r="G14" t="inlineStr">
         <is>
           <t>and its only been a couple of days i am shocked. #tiktokshopspringglowup #tiktokshopsale</t>
         </is>
       </c>
-      <c r="H8" t="n">
+      <c r="H14" t="n">
         <v>1.435406698564593</v>
       </c>
-      <c r="I8" t="n">
+      <c r="I14" t="n">
         <v>1.435406698564593</v>
       </c>
-      <c r="J8" t="n">
-        <v>0</v>
-      </c>
-      <c r="K8" t="n">
-        <v>0</v>
-      </c>
-      <c r="L8" t="n">
+      <c r="J14" t="n">
+        <v>0</v>
+      </c>
+      <c r="K14" t="n">
+        <v>0</v>
+      </c>
+      <c r="L14" t="n">
         <v>0.1594896331738437</v>
       </c>
-      <c r="M8" t="n">
-        <v>0</v>
-      </c>
-      <c r="N8" t="inlineStr">
+      <c r="M14" t="n">
+        <v>0</v>
+      </c>
+      <c r="N14" t="inlineStr">
         <is>
           <t>2025-03-21</t>
         </is>
       </c>
     </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
+    <row r="15">
+      <c r="A15" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@alya.lott/video/7483938992229092654</t>
         </is>
       </c>
-      <c r="B9" t="n">
+      <c r="B15" t="n">
         <v>14100</v>
       </c>
-      <c r="C9" t="n">
+      <c r="C15" t="n">
         <v>322</v>
       </c>
-      <c r="D9" t="n">
+      <c r="D15" t="n">
         <v>3</v>
       </c>
-      <c r="E9" t="n">
-        <v>0</v>
-      </c>
-      <c r="F9" t="n">
+      <c r="E15" t="n">
+        <v>0</v>
+      </c>
+      <c r="F15" t="n">
         <v>23</v>
       </c>
-      <c r="G9" t="inlineStr">
+      <c r="G15" t="inlineStr">
         <is>
           <t>and its on huge sale rn like what😭 #tiktokshopsale #tiktokshopspringglowup #tiktokshop #yaraperfume</t>
         </is>
       </c>
-      <c r="H9" t="n">
+      <c r="H15" t="n">
         <v>2.304964539007092</v>
       </c>
-      <c r="I9" t="n">
+      <c r="I15" t="n">
         <v>2.283687943262411</v>
       </c>
-      <c r="J9" t="n">
-        <v>0</v>
-      </c>
-      <c r="K9" t="n">
+      <c r="J15" t="n">
+        <v>0</v>
+      </c>
+      <c r="K15" t="n">
         <v>0.02127659574468085</v>
       </c>
-      <c r="L9" t="n">
+      <c r="L15" t="n">
         <v>0.1631205673758865</v>
       </c>
-      <c r="M9" t="n">
-        <v>0</v>
-      </c>
-      <c r="N9" t="inlineStr">
+      <c r="M15" t="n">
+        <v>0</v>
+      </c>
+      <c r="N15" t="inlineStr">
         <is>
           <t>2025-03-21</t>
         </is>
       </c>
     </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@alya.lott/video/7483922438342987038</t>
         </is>
       </c>
-      <c r="B10" t="n">
+      <c r="B16" t="n">
         <v>484</v>
       </c>
-      <c r="C10" t="n">
+      <c r="C16" t="n">
         <v>4</v>
       </c>
-      <c r="D10" t="n">
-        <v>0</v>
-      </c>
-      <c r="E10" t="n">
-        <v>0</v>
-      </c>
-      <c r="F10" t="n">
-        <v>0</v>
-      </c>
-      <c r="G10" t="inlineStr">
+      <c r="D16" t="n">
+        <v>0</v>
+      </c>
+      <c r="E16" t="n">
+        <v>0</v>
+      </c>
+      <c r="F16" t="n">
+        <v>0</v>
+      </c>
+      <c r="G16" t="inlineStr">
         <is>
           <t>i got these for $80😭 #tiktokshop #tiktokshopsale #tiktokshopspringglowup #tarte</t>
         </is>
       </c>
-      <c r="H10" t="n">
+      <c r="H16" t="n">
         <v>0.8264462809917356</v>
       </c>
-      <c r="I10" t="n">
+      <c r="I16" t="n">
         <v>0.8264462809917356</v>
       </c>
-      <c r="J10" t="n">
-        <v>0</v>
-      </c>
-      <c r="K10" t="n">
-        <v>0</v>
-      </c>
-      <c r="L10" t="n">
-        <v>0</v>
-      </c>
-      <c r="M10" t="n">
-        <v>0</v>
-      </c>
-      <c r="N10" t="inlineStr">
+      <c r="J16" t="n">
+        <v>0</v>
+      </c>
+      <c r="K16" t="n">
+        <v>0</v>
+      </c>
+      <c r="L16" t="n">
+        <v>0</v>
+      </c>
+      <c r="M16" t="n">
+        <v>0</v>
+      </c>
+      <c r="N16" t="inlineStr">
         <is>
           <t>2025-03-21</t>
         </is>
       </c>
     </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
+    <row r="17">
+      <c r="A17" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@alya.lott/video/7483876830420765994</t>
         </is>
       </c>
-      <c r="B11" t="n">
+      <c r="B17" t="n">
         <v>15900</v>
       </c>
-      <c r="C11" t="n">
+      <c r="C17" t="n">
         <v>295</v>
       </c>
-      <c r="D11" t="n">
+      <c r="D17" t="n">
         <v>4</v>
       </c>
-      <c r="E11" t="n">
-        <v>0</v>
-      </c>
-      <c r="F11" t="n">
+      <c r="E17" t="n">
+        <v>0</v>
+      </c>
+      <c r="F17" t="n">
         <v>6</v>
       </c>
-      <c r="G11" t="inlineStr">
+      <c r="G17" t="inlineStr">
         <is>
           <t>why did i get it for a full price a week ago UGH #tiktokshopspringglowup #tiktokshop #tiktokshopsale #tarte</t>
         </is>
       </c>
-      <c r="H11" t="n">
+      <c r="H17" t="n">
         <v>1.880503144654088</v>
       </c>
-      <c r="I11" t="n">
+      <c r="I17" t="n">
         <v>1.855345911949686</v>
       </c>
-      <c r="J11" t="n">
-        <v>0</v>
-      </c>
-      <c r="K11" t="n">
+      <c r="J17" t="n">
+        <v>0</v>
+      </c>
+      <c r="K17" t="n">
         <v>0.02515723270440251</v>
       </c>
-      <c r="L11" t="n">
+      <c r="L17" t="n">
         <v>0.03773584905660377</v>
       </c>
-      <c r="M11" t="n">
-        <v>0</v>
-      </c>
-      <c r="N11" t="inlineStr">
+      <c r="M17" t="n">
+        <v>0</v>
+      </c>
+      <c r="N17" t="inlineStr">
         <is>
           <t>2025-03-20</t>
         </is>
       </c>
     </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
+    <row r="18">
+      <c r="A18" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@alya.lott/video/7483684712565919022</t>
         </is>
       </c>
-      <c r="B12" t="n">
+      <c r="B18" t="n">
         <v>10400</v>
       </c>
-      <c r="C12" t="n">
+      <c r="C18" t="n">
         <v>192</v>
       </c>
-      <c r="D12" t="n">
+      <c r="D18" t="n">
         <v>2</v>
       </c>
-      <c r="E12" t="n">
-        <v>0</v>
-      </c>
-      <c r="F12" t="n">
+      <c r="E18" t="n">
+        <v>0</v>
+      </c>
+      <c r="F18" t="n">
         <v>9</v>
       </c>
-      <c r="G12" t="inlineStr">
+      <c r="G18" t="inlineStr">
         <is>
           <t>Buy a lipstick, get concealer for free huh #tiktokshopsale #tiktokshopspringglowup #tiktokshop #tarte</t>
         </is>
       </c>
-      <c r="H12" t="n">
+      <c r="H18" t="n">
         <v>1.865384615384615</v>
       </c>
-      <c r="I12" t="n">
+      <c r="I18" t="n">
         <v>1.846153846153846</v>
       </c>
-      <c r="J12" t="n">
-        <v>0</v>
-      </c>
-      <c r="K12" t="n">
+      <c r="J18" t="n">
+        <v>0</v>
+      </c>
+      <c r="K18" t="n">
         <v>0.01923076923076923</v>
       </c>
-      <c r="L12" t="n">
+      <c r="L18" t="n">
         <v>0.08653846153846154</v>
       </c>
-      <c r="M12" t="n">
-        <v>0</v>
-      </c>
-      <c r="N12" t="inlineStr">
+      <c r="M18" t="n">
+        <v>0</v>
+      </c>
+      <c r="N18" t="inlineStr">
         <is>
           <t>2025-03-20</t>
         </is>
       </c>
     </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
+    <row r="19">
+      <c r="A19" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@alya.lott/video/7482894172438007071</t>
         </is>
       </c>
-      <c r="B13" t="n">
+      <c r="B19" t="n">
         <v>29600</v>
       </c>
-      <c r="C13" t="n">
+      <c r="C19" t="n">
         <v>443</v>
       </c>
-      <c r="D13" t="n">
+      <c r="D19" t="n">
         <v>10</v>
       </c>
-      <c r="E13" t="n">
-        <v>0</v>
-      </c>
-      <c r="F13" t="n">
+      <c r="E19" t="n">
+        <v>0</v>
+      </c>
+      <c r="F19" t="n">
         <v>11</v>
       </c>
-      <c r="G13" t="inlineStr">
+      <c r="G19" t="inlineStr">
         <is>
           <t>i got it for $50 A WEEK AGO ARE YOU KIDDING #tiktokshop #tiktokshopsale #yaraperfume #tiktokshopspringglowup</t>
         </is>
       </c>
-      <c r="H13" t="n">
+      <c r="H19" t="n">
         <v>1.530405405405405</v>
       </c>
-      <c r="I13" t="n">
+      <c r="I19" t="n">
         <v>1.496621621621621</v>
       </c>
-      <c r="J13" t="n">
-        <v>0</v>
-      </c>
-      <c r="K13" t="n">
+      <c r="J19" t="n">
+        <v>0</v>
+      </c>
+      <c r="K19" t="n">
         <v>0.03378378378378379</v>
       </c>
-      <c r="L13" t="n">
+      <c r="L19" t="n">
         <v>0.03716216216216216</v>
       </c>
-      <c r="M13" t="n">
-        <v>0</v>
-      </c>
-      <c r="N13" t="inlineStr">
+      <c r="M19" t="n">
+        <v>0</v>
+      </c>
+      <c r="N19" t="inlineStr">
         <is>
           <t>2025-03-18</t>
         </is>
       </c>
     </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
+    <row r="20">
+      <c r="A20" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@alya.lott/video/7480615890825039150</t>
         </is>
       </c>
-      <c r="B14" t="n">
+      <c r="B20" t="n">
         <v>1939</v>
       </c>
-      <c r="C14" t="n">
+      <c r="C20" t="n">
         <v>19</v>
       </c>
-      <c r="D14" t="n">
+      <c r="D20" t="n">
         <v>2</v>
-      </c>
-      <c r="E14" t="n">
-        <v>0</v>
-      </c>
-      <c r="F14" t="n">
-        <v>1</v>
-      </c>
-      <c r="G14" t="inlineStr">
-        <is>
-          <t>i havent even been using this for a week😭 #tiktokshopsale #tiktokshop #glassskin #acne #skintexture</t>
-        </is>
-      </c>
-      <c r="H14" t="n">
-        <v>1.083032490974729</v>
-      </c>
-      <c r="I14" t="n">
-        <v>0.9798865394533264</v>
-      </c>
-      <c r="J14" t="n">
-        <v>0</v>
-      </c>
-      <c r="K14" t="n">
-        <v>0.1031459515214028</v>
-      </c>
-      <c r="L14" t="n">
-        <v>0.0515729757607014</v>
-      </c>
-      <c r="M14" t="n">
-        <v>0</v>
-      </c>
-      <c r="N14" t="inlineStr">
-        <is>
-          <t>2025-03-12</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>https://www.tiktok.com/@alya.lott/video/7480250323152506154</t>
-        </is>
-      </c>
-      <c r="B15" t="n">
-        <v>162900</v>
-      </c>
-      <c r="C15" t="n">
-        <v>8756</v>
-      </c>
-      <c r="D15" t="n">
-        <v>31</v>
-      </c>
-      <c r="E15" t="n">
-        <v>0</v>
-      </c>
-      <c r="F15" t="n">
-        <v>317</v>
-      </c>
-      <c r="G15" t="inlineStr">
-        <is>
-          <t>i just got it for $36 at the store😭 #tiktokshop #tiktokshopsale #bornthiswayconcealer #makeup</t>
-        </is>
-      </c>
-      <c r="H15" t="n">
-        <v>5.394106813996316</v>
-      </c>
-      <c r="I15" t="n">
-        <v>5.375076734192756</v>
-      </c>
-      <c r="J15" t="n">
-        <v>0</v>
-      </c>
-      <c r="K15" t="n">
-        <v>0.01903007980356047</v>
-      </c>
-      <c r="L15" t="n">
-        <v>0.194597912829957</v>
-      </c>
-      <c r="M15" t="n">
-        <v>0</v>
-      </c>
-      <c r="N15" t="inlineStr">
-        <is>
-          <t>2025-03-11</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>https://www.tiktok.com/@alya.lott/video/7479170076751547691</t>
-        </is>
-      </c>
-      <c r="B16" t="n">
-        <v>125700</v>
-      </c>
-      <c r="C16" t="n">
-        <v>3569</v>
-      </c>
-      <c r="D16" t="n">
-        <v>14</v>
-      </c>
-      <c r="E16" t="n">
-        <v>0</v>
-      </c>
-      <c r="F16" t="n">
-        <v>259</v>
-      </c>
-      <c r="G16" t="inlineStr">
-        <is>
-          <t>girlies were fr about this one #tiktokshopsale #tiktokshop #hairgrowth #longhair</t>
-        </is>
-      </c>
-      <c r="H16" t="n">
-        <v>2.850437549721559</v>
-      </c>
-      <c r="I16" t="n">
-        <v>2.839299920445505</v>
-      </c>
-      <c r="J16" t="n">
-        <v>0</v>
-      </c>
-      <c r="K16" t="n">
-        <v>0.0111376292760541</v>
-      </c>
-      <c r="L16" t="n">
-        <v>0.2060461416070008</v>
-      </c>
-      <c r="M16" t="n">
-        <v>0</v>
-      </c>
-      <c r="N16" t="inlineStr">
-        <is>
-          <t>2025-03-08</t>
-        </is>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>https://www.tiktok.com/@alya.lott/video/7473573025510657326</t>
-        </is>
-      </c>
-      <c r="B17" t="n">
-        <v>1589</v>
-      </c>
-      <c r="C17" t="n">
-        <v>40</v>
-      </c>
-      <c r="D17" t="n">
-        <v>2</v>
-      </c>
-      <c r="E17" t="n">
-        <v>0</v>
-      </c>
-      <c r="F17" t="n">
-        <v>3</v>
-      </c>
-      <c r="G17" t="inlineStr">
-        <is>
-          <t>how to choose here😭#girlythings #relatable</t>
-        </is>
-      </c>
-      <c r="H17" t="n">
-        <v>2.643171806167401</v>
-      </c>
-      <c r="I17" t="n">
-        <v>2.517306482064191</v>
-      </c>
-      <c r="J17" t="n">
-        <v>0</v>
-      </c>
-      <c r="K17" t="n">
-        <v>0.1258653241032096</v>
-      </c>
-      <c r="L17" t="n">
-        <v>0.1887979861548144</v>
-      </c>
-      <c r="M17" t="n">
-        <v>0</v>
-      </c>
-      <c r="N17" t="inlineStr">
-        <is>
-          <t>2025-02-21</t>
-        </is>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>https://www.tiktok.com/@alya.lott/video/7473556389181377838</t>
-        </is>
-      </c>
-      <c r="B18" t="n">
-        <v>1332</v>
-      </c>
-      <c r="C18" t="n">
-        <v>37</v>
-      </c>
-      <c r="D18" t="n">
-        <v>5</v>
-      </c>
-      <c r="E18" t="n">
-        <v>0</v>
-      </c>
-      <c r="F18" t="n">
-        <v>5</v>
-      </c>
-      <c r="G18" t="inlineStr">
-        <is>
-          <t>how to choose here😭#girlythings #relatable</t>
-        </is>
-      </c>
-      <c r="H18" t="n">
-        <v>3.153153153153153</v>
-      </c>
-      <c r="I18" t="n">
-        <v>2.777777777777778</v>
-      </c>
-      <c r="J18" t="n">
-        <v>0</v>
-      </c>
-      <c r="K18" t="n">
-        <v>0.3753753753753754</v>
-      </c>
-      <c r="L18" t="n">
-        <v>0.3753753753753754</v>
-      </c>
-      <c r="M18" t="n">
-        <v>0</v>
-      </c>
-      <c r="N18" t="inlineStr">
-        <is>
-          <t>2025-02-21</t>
-        </is>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>https://www.tiktok.com/@alya.lott/video/7471705273619533098</t>
-        </is>
-      </c>
-      <c r="B19" t="n">
-        <v>1176</v>
-      </c>
-      <c r="C19" t="n">
-        <v>40</v>
-      </c>
-      <c r="D19" t="n">
-        <v>2</v>
-      </c>
-      <c r="E19" t="n">
-        <v>0</v>
-      </c>
-      <c r="F19" t="n">
-        <v>0</v>
-      </c>
-      <c r="G19" t="inlineStr">
-        <is>
-          <t>jisoo blessed our ears this year #girlythings #relatable</t>
-        </is>
-      </c>
-      <c r="H19" t="n">
-        <v>3.571428571428571</v>
-      </c>
-      <c r="I19" t="n">
-        <v>3.401360544217687</v>
-      </c>
-      <c r="J19" t="n">
-        <v>0</v>
-      </c>
-      <c r="K19" t="n">
-        <v>0.1700680272108843</v>
-      </c>
-      <c r="L19" t="n">
-        <v>0</v>
-      </c>
-      <c r="M19" t="n">
-        <v>0</v>
-      </c>
-      <c r="N19" t="inlineStr">
-        <is>
-          <t>2025-02-16</t>
-        </is>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="inlineStr">
-        <is>
-          <t>https://www.tiktok.com/@alya.lott/video/7471691554025901354</t>
-        </is>
-      </c>
-      <c r="B20" t="n">
-        <v>1349</v>
-      </c>
-      <c r="C20" t="n">
-        <v>74</v>
-      </c>
-      <c r="D20" t="n">
-        <v>4</v>
       </c>
       <c r="E20" t="n">
         <v>0</v>
@@ -1434,244 +1434,244 @@
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>how did i just found out about this🥲 #girlythings #relatable #shock</t>
+          <t>i havent even been using this for a week😭 #tiktokshopsale #tiktokshop #glassskin #acne #skintexture</t>
         </is>
       </c>
       <c r="H20" t="n">
-        <v>5.782060785767236</v>
+        <v>1.083032490974729</v>
       </c>
       <c r="I20" t="n">
-        <v>5.485544848035582</v>
+        <v>0.9798865394533264</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
       </c>
       <c r="K20" t="n">
-        <v>0.2965159377316531</v>
+        <v>0.1031459515214028</v>
       </c>
       <c r="L20" t="n">
-        <v>0.07412898443291327</v>
+        <v>0.0515729757607014</v>
       </c>
       <c r="M20" t="n">
         <v>0</v>
       </c>
       <c r="N20" t="inlineStr">
         <is>
-          <t>2025-02-16</t>
+          <t>2025-03-12</t>
         </is>
       </c>
     </row>
     <row r="21">
-      <c r="A21" t="inlineStr">
-        <is>
-          <t>https://www.tiktok.com/@alya.lott/video/7471373073585802538</t>
+      <c r="A21" s="1" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@alya.lott/video/7480250323152506154</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>1022</v>
+        <v>162900</v>
       </c>
       <c r="C21" t="n">
-        <v>47</v>
+        <v>8756</v>
       </c>
       <c r="D21" t="n">
-        <v>1</v>
+        <v>31</v>
       </c>
       <c r="E21" t="n">
         <v>0</v>
       </c>
       <c r="F21" t="n">
-        <v>1</v>
+        <v>317</v>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>this is your sign to go to tj maxx this week #tjmaxx #tjmaxxfinds #tjmaxxhaul #girlythings</t>
+          <t>i just got it for $36 at the store😭 #tiktokshop #tiktokshopsale #bornthiswayconcealer #makeup</t>
         </is>
       </c>
       <c r="H21" t="n">
-        <v>4.696673189823874</v>
+        <v>5.394106813996316</v>
       </c>
       <c r="I21" t="n">
-        <v>4.598825831702544</v>
+        <v>5.375076734192756</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>0.09784735812133072</v>
+        <v>0.01903007980356047</v>
       </c>
       <c r="L21" t="n">
-        <v>0.09784735812133072</v>
+        <v>0.194597912829957</v>
       </c>
       <c r="M21" t="n">
         <v>0</v>
       </c>
       <c r="N21" t="inlineStr">
         <is>
-          <t>2025-02-15</t>
+          <t>2025-03-11</t>
         </is>
       </c>
     </row>
     <row r="22">
-      <c r="A22" t="inlineStr">
-        <is>
-          <t>https://www.tiktok.com/@alya.lott/video/7471317326562921770</t>
+      <c r="A22" s="1" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@alya.lott/video/7479170076751547691</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>3572</v>
+        <v>125700</v>
       </c>
       <c r="C22" t="n">
-        <v>198</v>
+        <v>3569</v>
       </c>
       <c r="D22" t="n">
+        <v>14</v>
+      </c>
+      <c r="E22" t="n">
+        <v>0</v>
+      </c>
+      <c r="F22" t="n">
+        <v>259</v>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>girlies were fr about this one #tiktokshopsale #tiktokshop #hairgrowth #longhair</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>2.850437549721559</v>
+      </c>
+      <c r="I22" t="n">
+        <v>2.839299920445505</v>
+      </c>
+      <c r="J22" t="n">
+        <v>0</v>
+      </c>
+      <c r="K22" t="n">
+        <v>0.0111376292760541</v>
+      </c>
+      <c r="L22" t="n">
+        <v>0.2060461416070008</v>
+      </c>
+      <c r="M22" t="n">
+        <v>0</v>
+      </c>
+      <c r="N22" t="inlineStr">
+        <is>
+          <t>2025-03-08</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@alya.lott/video/7473573025510657326</t>
+        </is>
+      </c>
+      <c r="B23" t="n">
+        <v>1589</v>
+      </c>
+      <c r="C23" t="n">
+        <v>40</v>
+      </c>
+      <c r="D23" t="n">
         <v>2</v>
       </c>
-      <c r="E22" t="n">
-        <v>0</v>
-      </c>
-      <c r="F22" t="n">
-        <v>6</v>
-      </c>
-      <c r="G22" t="inlineStr">
-        <is>
-          <t>this is your sign to go to tj maxx this week #tjmaxx #tjmaxxfinds #tjmaxxhaul #girlythings</t>
-        </is>
-      </c>
-      <c r="H22" t="n">
-        <v>5.599104143337066</v>
-      </c>
-      <c r="I22" t="n">
-        <v>5.543113101903695</v>
-      </c>
-      <c r="J22" t="n">
-        <v>0</v>
-      </c>
-      <c r="K22" t="n">
-        <v>0.05599104143337066</v>
-      </c>
-      <c r="L22" t="n">
-        <v>0.167973124300112</v>
-      </c>
-      <c r="M22" t="n">
-        <v>0</v>
-      </c>
-      <c r="N22" t="inlineStr">
-        <is>
-          <t>2025-02-15</t>
-        </is>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="inlineStr">
-        <is>
-          <t>https://www.tiktok.com/@alya.lott/video/7471308597046283566</t>
-        </is>
-      </c>
-      <c r="B23" t="n">
-        <v>822</v>
-      </c>
-      <c r="C23" t="n">
-        <v>67</v>
-      </c>
-      <c r="D23" t="n">
-        <v>1</v>
-      </c>
       <c r="E23" t="n">
         <v>0</v>
       </c>
       <c r="F23" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>law of attraction is no joke</t>
+          <t>how to choose here😭#girlythings #relatable</t>
         </is>
       </c>
       <c r="H23" t="n">
-        <v>8.27250608272506</v>
+        <v>2.643171806167401</v>
       </c>
       <c r="I23" t="n">
-        <v>8.150851581508515</v>
+        <v>2.517306482064191</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
       </c>
       <c r="K23" t="n">
-        <v>0.121654501216545</v>
+        <v>0.1258653241032096</v>
       </c>
       <c r="L23" t="n">
-        <v>0.121654501216545</v>
+        <v>0.1887979861548144</v>
       </c>
       <c r="M23" t="n">
         <v>0</v>
       </c>
       <c r="N23" t="inlineStr">
         <is>
-          <t>2025-02-15</t>
+          <t>2025-02-21</t>
         </is>
       </c>
     </row>
     <row r="24">
-      <c r="A24" t="inlineStr">
-        <is>
-          <t>https://www.tiktok.com/@alya.lott/video/7471086296333602091</t>
+      <c r="A24" s="1" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@alya.lott/video/7473556389181377838</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>647</v>
+        <v>1332</v>
       </c>
       <c r="C24" t="n">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="D24" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E24" t="n">
         <v>0</v>
       </c>
       <c r="F24" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>at least they’re pink hehe #miami #relatable #girlycontent</t>
+          <t>how to choose here😭#girlythings #relatable</t>
         </is>
       </c>
       <c r="H24" t="n">
-        <v>7.264296754250386</v>
+        <v>3.153153153153153</v>
       </c>
       <c r="I24" t="n">
-        <v>6.955177743431221</v>
+        <v>2.777777777777778</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>0.3091190108191654</v>
+        <v>0.3753753753753754</v>
       </c>
       <c r="L24" t="n">
-        <v>0.1545595054095827</v>
+        <v>0.3753753753753754</v>
       </c>
       <c r="M24" t="n">
         <v>0</v>
       </c>
       <c r="N24" t="inlineStr">
         <is>
-          <t>2025-02-14</t>
+          <t>2025-02-21</t>
         </is>
       </c>
     </row>
     <row r="25">
-      <c r="A25" t="inlineStr">
-        <is>
-          <t>https://www.tiktok.com/@alya.lott/video/7469869751376956715</t>
+      <c r="A25" s="1" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@alya.lott/video/7471705273619533098</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>1103</v>
+        <v>1176</v>
       </c>
       <c r="C25" t="n">
-        <v>126</v>
+        <v>40</v>
       </c>
       <c r="D25" t="n">
         <v>2</v>
@@ -1680,151 +1680,151 @@
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>making little tiktoks paid off:) #miami #miamilife #moving</t>
+          <t>jisoo blessed our ears this year #girlythings #relatable</t>
         </is>
       </c>
       <c r="H25" t="n">
-        <v>11.60471441523119</v>
+        <v>3.571428571428571</v>
       </c>
       <c r="I25" t="n">
-        <v>11.4233907524932</v>
+        <v>3.401360544217687</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
       </c>
       <c r="K25" t="n">
-        <v>0.1813236627379873</v>
+        <v>0.1700680272108843</v>
       </c>
       <c r="L25" t="n">
-        <v>0.6346328195829556</v>
+        <v>0</v>
       </c>
       <c r="M25" t="n">
         <v>0</v>
       </c>
       <c r="N25" t="inlineStr">
         <is>
-          <t>2025-02-11</t>
+          <t>2025-02-16</t>
         </is>
       </c>
     </row>
     <row r="26">
-      <c r="A26" t="inlineStr">
-        <is>
-          <t>https://www.tiktok.com/@alya.lott/video/7465042149302701355</t>
+      <c r="A26" s="1" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@alya.lott/video/7471691554025901354</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>10800</v>
+        <v>1349</v>
       </c>
       <c r="C26" t="n">
-        <v>336</v>
+        <v>74</v>
       </c>
       <c r="D26" t="n">
+        <v>4</v>
+      </c>
+      <c r="E26" t="n">
+        <v>0</v>
+      </c>
+      <c r="F26" t="n">
+        <v>1</v>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>how did i just found out about this🥲 #girlythings #relatable #shock</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>5.782060785767236</v>
+      </c>
+      <c r="I26" t="n">
+        <v>5.485544848035582</v>
+      </c>
+      <c r="J26" t="n">
+        <v>0</v>
+      </c>
+      <c r="K26" t="n">
+        <v>0.2965159377316531</v>
+      </c>
+      <c r="L26" t="n">
+        <v>0.07412898443291327</v>
+      </c>
+      <c r="M26" t="n">
+        <v>0</v>
+      </c>
+      <c r="N26" t="inlineStr">
+        <is>
+          <t>2025-02-16</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@alya.lott/video/7471373073585802538</t>
+        </is>
+      </c>
+      <c r="B27" t="n">
+        <v>1022</v>
+      </c>
+      <c r="C27" t="n">
+        <v>47</v>
+      </c>
+      <c r="D27" t="n">
+        <v>1</v>
+      </c>
+      <c r="E27" t="n">
+        <v>0</v>
+      </c>
+      <c r="F27" t="n">
+        <v>1</v>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>this is your sign to go to tj maxx this week #tjmaxx #tjmaxxfinds #tjmaxxhaul #girlythings</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>4.696673189823874</v>
+      </c>
+      <c r="I27" t="n">
+        <v>4.598825831702544</v>
+      </c>
+      <c r="J27" t="n">
+        <v>0</v>
+      </c>
+      <c r="K27" t="n">
+        <v>0.09784735812133072</v>
+      </c>
+      <c r="L27" t="n">
+        <v>0.09784735812133072</v>
+      </c>
+      <c r="M27" t="n">
+        <v>0</v>
+      </c>
+      <c r="N27" t="inlineStr">
+        <is>
+          <t>2025-02-15</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="1" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@alya.lott/video/7471317326562921770</t>
+        </is>
+      </c>
+      <c r="B28" t="n">
+        <v>3572</v>
+      </c>
+      <c r="C28" t="n">
+        <v>198</v>
+      </c>
+      <c r="D28" t="n">
         <v>2</v>
-      </c>
-      <c r="E26" t="n">
-        <v>0</v>
-      </c>
-      <c r="F26" t="n">
-        <v>16</v>
-      </c>
-      <c r="G26" t="inlineStr">
-        <is>
-          <t>making little tiktoks paid off:) #miami #miamilife #moving</t>
-        </is>
-      </c>
-      <c r="H26" t="n">
-        <v>3.129629629629629</v>
-      </c>
-      <c r="I26" t="n">
-        <v>3.111111111111111</v>
-      </c>
-      <c r="J26" t="n">
-        <v>0</v>
-      </c>
-      <c r="K26" t="n">
-        <v>0.01851851851851852</v>
-      </c>
-      <c r="L26" t="n">
-        <v>0.1481481481481481</v>
-      </c>
-      <c r="M26" t="n">
-        <v>0</v>
-      </c>
-      <c r="N26" t="inlineStr">
-        <is>
-          <t>2025-01-29</t>
-        </is>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" t="inlineStr">
-        <is>
-          <t>https://www.tiktok.com/@alya.lott/video/7463312890246843691</t>
-        </is>
-      </c>
-      <c r="B27" t="n">
-        <v>1667</v>
-      </c>
-      <c r="C27" t="n">
-        <v>36</v>
-      </c>
-      <c r="D27" t="n">
-        <v>3</v>
-      </c>
-      <c r="E27" t="n">
-        <v>0</v>
-      </c>
-      <c r="F27" t="n">
-        <v>4</v>
-      </c>
-      <c r="G27" t="inlineStr">
-        <is>
-          <t>i mean am i wrong😅 #girladvice #girlytips #relationshipadvice</t>
-        </is>
-      </c>
-      <c r="H27" t="n">
-        <v>2.339532093581284</v>
-      </c>
-      <c r="I27" t="n">
-        <v>2.159568086382723</v>
-      </c>
-      <c r="J27" t="n">
-        <v>0</v>
-      </c>
-      <c r="K27" t="n">
-        <v>0.1799640071985603</v>
-      </c>
-      <c r="L27" t="n">
-        <v>0.2399520095980804</v>
-      </c>
-      <c r="M27" t="n">
-        <v>0</v>
-      </c>
-      <c r="N27" t="inlineStr">
-        <is>
-          <t>2025-01-24</t>
-        </is>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" t="inlineStr">
-        <is>
-          <t>https://www.tiktok.com/@alya.lott/video/7463308160988679470</t>
-        </is>
-      </c>
-      <c r="B28" t="n">
-        <v>11100</v>
-      </c>
-      <c r="C28" t="n">
-        <v>153</v>
-      </c>
-      <c r="D28" t="n">
-        <v>0</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
@@ -1834,878 +1834,1178 @@
       </c>
       <c r="G28" t="inlineStr">
         <is>
+          <t>this is your sign to go to tj maxx this week #tjmaxx #tjmaxxfinds #tjmaxxhaul #girlythings</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>5.599104143337066</v>
+      </c>
+      <c r="I28" t="n">
+        <v>5.543113101903695</v>
+      </c>
+      <c r="J28" t="n">
+        <v>0</v>
+      </c>
+      <c r="K28" t="n">
+        <v>0.05599104143337066</v>
+      </c>
+      <c r="L28" t="n">
+        <v>0.167973124300112</v>
+      </c>
+      <c r="M28" t="n">
+        <v>0</v>
+      </c>
+      <c r="N28" t="inlineStr">
+        <is>
+          <t>2025-02-15</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="1" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@alya.lott/video/7471308597046283566</t>
+        </is>
+      </c>
+      <c r="B29" t="n">
+        <v>822</v>
+      </c>
+      <c r="C29" t="n">
+        <v>67</v>
+      </c>
+      <c r="D29" t="n">
+        <v>1</v>
+      </c>
+      <c r="E29" t="n">
+        <v>0</v>
+      </c>
+      <c r="F29" t="n">
+        <v>1</v>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>law of attraction is no joke</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>8.27250608272506</v>
+      </c>
+      <c r="I29" t="n">
+        <v>8.150851581508515</v>
+      </c>
+      <c r="J29" t="n">
+        <v>0</v>
+      </c>
+      <c r="K29" t="n">
+        <v>0.121654501216545</v>
+      </c>
+      <c r="L29" t="n">
+        <v>0.121654501216545</v>
+      </c>
+      <c r="M29" t="n">
+        <v>0</v>
+      </c>
+      <c r="N29" t="inlineStr">
+        <is>
+          <t>2025-02-15</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="1" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@alya.lott/video/7471086296333602091</t>
+        </is>
+      </c>
+      <c r="B30" t="n">
+        <v>647</v>
+      </c>
+      <c r="C30" t="n">
+        <v>45</v>
+      </c>
+      <c r="D30" t="n">
+        <v>2</v>
+      </c>
+      <c r="E30" t="n">
+        <v>0</v>
+      </c>
+      <c r="F30" t="n">
+        <v>1</v>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>at least they’re pink hehe #miami #relatable #girlycontent</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>7.264296754250386</v>
+      </c>
+      <c r="I30" t="n">
+        <v>6.955177743431221</v>
+      </c>
+      <c r="J30" t="n">
+        <v>0</v>
+      </c>
+      <c r="K30" t="n">
+        <v>0.3091190108191654</v>
+      </c>
+      <c r="L30" t="n">
+        <v>0.1545595054095827</v>
+      </c>
+      <c r="M30" t="n">
+        <v>0</v>
+      </c>
+      <c r="N30" t="inlineStr">
+        <is>
+          <t>2025-02-14</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="1" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@alya.lott/video/7469869751376956715</t>
+        </is>
+      </c>
+      <c r="B31" t="n">
+        <v>1103</v>
+      </c>
+      <c r="C31" t="n">
+        <v>126</v>
+      </c>
+      <c r="D31" t="n">
+        <v>2</v>
+      </c>
+      <c r="E31" t="n">
+        <v>0</v>
+      </c>
+      <c r="F31" t="n">
+        <v>7</v>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>making little tiktoks paid off:) #miami #miamilife #moving</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>11.60471441523119</v>
+      </c>
+      <c r="I31" t="n">
+        <v>11.4233907524932</v>
+      </c>
+      <c r="J31" t="n">
+        <v>0</v>
+      </c>
+      <c r="K31" t="n">
+        <v>0.1813236627379873</v>
+      </c>
+      <c r="L31" t="n">
+        <v>0.6346328195829556</v>
+      </c>
+      <c r="M31" t="n">
+        <v>0</v>
+      </c>
+      <c r="N31" t="inlineStr">
+        <is>
+          <t>2025-02-11</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="1" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@alya.lott/video/7465042149302701355</t>
+        </is>
+      </c>
+      <c r="B32" t="n">
+        <v>10800</v>
+      </c>
+      <c r="C32" t="n">
+        <v>336</v>
+      </c>
+      <c r="D32" t="n">
+        <v>2</v>
+      </c>
+      <c r="E32" t="n">
+        <v>0</v>
+      </c>
+      <c r="F32" t="n">
+        <v>16</v>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>making little tiktoks paid off:) #miami #miamilife #moving</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>3.129629629629629</v>
+      </c>
+      <c r="I32" t="n">
+        <v>3.111111111111111</v>
+      </c>
+      <c r="J32" t="n">
+        <v>0</v>
+      </c>
+      <c r="K32" t="n">
+        <v>0.01851851851851852</v>
+      </c>
+      <c r="L32" t="n">
+        <v>0.1481481481481481</v>
+      </c>
+      <c r="M32" t="n">
+        <v>0</v>
+      </c>
+      <c r="N32" t="inlineStr">
+        <is>
+          <t>2025-01-29</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="1" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@alya.lott/video/7463312890246843691</t>
+        </is>
+      </c>
+      <c r="B33" t="n">
+        <v>1667</v>
+      </c>
+      <c r="C33" t="n">
+        <v>36</v>
+      </c>
+      <c r="D33" t="n">
+        <v>3</v>
+      </c>
+      <c r="E33" t="n">
+        <v>0</v>
+      </c>
+      <c r="F33" t="n">
+        <v>4</v>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>i mean am i wrong😅 #girladvice #girlytips #relationshipadvice</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>2.339532093581284</v>
+      </c>
+      <c r="I33" t="n">
+        <v>2.159568086382723</v>
+      </c>
+      <c r="J33" t="n">
+        <v>0</v>
+      </c>
+      <c r="K33" t="n">
+        <v>0.1799640071985603</v>
+      </c>
+      <c r="L33" t="n">
+        <v>0.2399520095980804</v>
+      </c>
+      <c r="M33" t="n">
+        <v>0</v>
+      </c>
+      <c r="N33" t="inlineStr">
+        <is>
+          <t>2025-01-24</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="1" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@alya.lott/video/7463308160988679470</t>
+        </is>
+      </c>
+      <c r="B34" t="n">
+        <v>11100</v>
+      </c>
+      <c r="C34" t="n">
+        <v>153</v>
+      </c>
+      <c r="D34" t="n">
+        <v>0</v>
+      </c>
+      <c r="E34" t="n">
+        <v>0</v>
+      </c>
+      <c r="F34" t="n">
+        <v>6</v>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
           <t>such a steal, i just got it for the full process at sephora cuz i didnt know about this🥲 #tiktokshopsale #tarte</t>
         </is>
       </c>
-      <c r="H28" t="n">
+      <c r="H34" t="n">
         <v>1.378378378378378</v>
       </c>
-      <c r="I28" t="n">
+      <c r="I34" t="n">
         <v>1.378378378378378</v>
       </c>
-      <c r="J28" t="n">
-        <v>0</v>
-      </c>
-      <c r="K28" t="n">
-        <v>0</v>
-      </c>
-      <c r="L28" t="n">
+      <c r="J34" t="n">
+        <v>0</v>
+      </c>
+      <c r="K34" t="n">
+        <v>0</v>
+      </c>
+      <c r="L34" t="n">
         <v>0.05405405405405406</v>
       </c>
-      <c r="M28" t="n">
-        <v>0</v>
-      </c>
-      <c r="N28" t="inlineStr">
+      <c r="M34" t="n">
+        <v>0</v>
+      </c>
+      <c r="N34" t="inlineStr">
         <is>
           <t>2025-01-24</t>
         </is>
       </c>
     </row>
-    <row r="29">
-      <c r="A29" t="inlineStr">
+    <row r="35">
+      <c r="A35" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@alya.lott/video/7463194832350154030</t>
         </is>
       </c>
-      <c r="B29" t="n">
+      <c r="B35" t="n">
         <v>7140</v>
       </c>
-      <c r="C29" t="n">
+      <c r="C35" t="n">
         <v>83</v>
       </c>
-      <c r="D29" t="n">
-        <v>0</v>
-      </c>
-      <c r="E29" t="n">
-        <v>0</v>
-      </c>
-      <c r="F29" t="n">
+      <c r="D35" t="n">
+        <v>0</v>
+      </c>
+      <c r="E35" t="n">
+        <v>0</v>
+      </c>
+      <c r="F35" t="n">
         <v>3</v>
       </c>
-      <c r="G29" t="inlineStr">
+      <c r="G35" t="inlineStr">
         <is>
           <t>girl RUN the sale ends today🙏🏻 #tiktokshop #tiktokshopjumpstart #tiktokshopsale #tarte</t>
         </is>
       </c>
-      <c r="H29" t="n">
+      <c r="H35" t="n">
         <v>1.162464985994398</v>
       </c>
-      <c r="I29" t="n">
+      <c r="I35" t="n">
         <v>1.162464985994398</v>
       </c>
-      <c r="J29" t="n">
-        <v>0</v>
-      </c>
-      <c r="K29" t="n">
-        <v>0</v>
-      </c>
-      <c r="L29" t="n">
+      <c r="J35" t="n">
+        <v>0</v>
+      </c>
+      <c r="K35" t="n">
+        <v>0</v>
+      </c>
+      <c r="L35" t="n">
         <v>0.04201680672268908</v>
       </c>
-      <c r="M29" t="n">
-        <v>0</v>
-      </c>
-      <c r="N29" t="inlineStr">
+      <c r="M35" t="n">
+        <v>0</v>
+      </c>
+      <c r="N35" t="inlineStr">
         <is>
           <t>2025-01-24</t>
         </is>
       </c>
     </row>
-    <row r="30">
-      <c r="A30" t="inlineStr">
+    <row r="36">
+      <c r="A36" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@alya.lott/video/7462368174135119147</t>
         </is>
       </c>
-      <c r="B30" t="n">
+      <c r="B36" t="n">
         <v>1270</v>
       </c>
-      <c r="C30" t="n">
+      <c r="C36" t="n">
         <v>80</v>
       </c>
-      <c r="D30" t="n">
-        <v>0</v>
-      </c>
-      <c r="E30" t="n">
-        <v>0</v>
-      </c>
-      <c r="F30" t="n">
+      <c r="D36" t="n">
+        <v>0</v>
+      </c>
+      <c r="E36" t="n">
+        <v>0</v>
+      </c>
+      <c r="F36" t="n">
         <v>5</v>
       </c>
-      <c r="G30" t="inlineStr">
+      <c r="G36" t="inlineStr">
         <is>
           <t>girl RUN the sale ends today🙏🏻 #tiktokshop #tiktokshopjumpstart #tiktokshopsale #tarte</t>
         </is>
       </c>
-      <c r="H30" t="n">
+      <c r="H36" t="n">
         <v>6.299212598425196</v>
       </c>
-      <c r="I30" t="n">
+      <c r="I36" t="n">
         <v>6.299212598425196</v>
       </c>
-      <c r="J30" t="n">
-        <v>0</v>
-      </c>
-      <c r="K30" t="n">
-        <v>0</v>
-      </c>
-      <c r="L30" t="n">
+      <c r="J36" t="n">
+        <v>0</v>
+      </c>
+      <c r="K36" t="n">
+        <v>0</v>
+      </c>
+      <c r="L36" t="n">
         <v>0.3937007874015748</v>
       </c>
-      <c r="M30" t="n">
-        <v>0</v>
-      </c>
-      <c r="N30" t="inlineStr">
+      <c r="M36" t="n">
+        <v>0</v>
+      </c>
+      <c r="N36" t="inlineStr">
         <is>
           <t>2025-01-21</t>
         </is>
       </c>
     </row>
-    <row r="31">
-      <c r="A31" t="inlineStr">
+    <row r="37">
+      <c r="A37" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@alya.lott/video/7462107344445656366</t>
         </is>
       </c>
-      <c r="B31" t="n">
+      <c r="B37" t="n">
         <v>426200</v>
       </c>
-      <c r="C31" t="n">
+      <c r="C37" t="n">
         <v>14900</v>
       </c>
-      <c r="D31" t="n">
+      <c r="D37" t="n">
         <v>49</v>
       </c>
-      <c r="E31" t="n">
-        <v>0</v>
-      </c>
-      <c r="F31" t="n">
+      <c r="E37" t="n">
+        <v>0</v>
+      </c>
+      <c r="F37" t="n">
         <v>1206</v>
       </c>
-      <c r="G31" t="inlineStr">
+      <c r="G37" t="inlineStr">
         <is>
           <t>and its on still sale because of the tiktok ban, i think they will stop the sale in the next day or so #tiktokshop</t>
         </is>
       </c>
-      <c r="H31" t="n">
+      <c r="H37" t="n">
         <v>3.507508212106992</v>
       </c>
-      <c r="I31" t="n">
+      <c r="I37" t="n">
         <v>3.49601126231816</v>
       </c>
-      <c r="J31" t="n">
-        <v>0</v>
-      </c>
-      <c r="K31" t="n">
+      <c r="J37" t="n">
+        <v>0</v>
+      </c>
+      <c r="K37" t="n">
         <v>0.01149694978883153</v>
       </c>
-      <c r="L31" t="n">
+      <c r="L37" t="n">
         <v>0.2829657437822619</v>
       </c>
-      <c r="M31" t="n">
-        <v>0</v>
-      </c>
-      <c r="N31" t="inlineStr">
+      <c r="M37" t="n">
+        <v>0</v>
+      </c>
+      <c r="N37" t="inlineStr">
         <is>
           <t>2025-01-21</t>
         </is>
       </c>
     </row>
-    <row r="32">
-      <c r="A32" t="inlineStr">
+    <row r="38">
+      <c r="A38" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@alya.lott/video/7462082375888080174</t>
         </is>
       </c>
-      <c r="B32" t="n">
+      <c r="B38" t="n">
         <v>728</v>
       </c>
-      <c r="C32" t="n">
+      <c r="C38" t="n">
         <v>35</v>
       </c>
-      <c r="D32" t="n">
-        <v>0</v>
-      </c>
-      <c r="E32" t="n">
-        <v>0</v>
-      </c>
-      <c r="F32" t="n">
+      <c r="D38" t="n">
+        <v>0</v>
+      </c>
+      <c r="E38" t="n">
+        <v>0</v>
+      </c>
+      <c r="F38" t="n">
         <v>6</v>
       </c>
-      <c r="G32" t="inlineStr">
+      <c r="G38" t="inlineStr">
         <is>
           <t>tiktok has new captions? #relationshipadvice #girladvice #girlycontent</t>
         </is>
       </c>
-      <c r="H32" t="n">
+      <c r="H38" t="n">
         <v>4.807692307692308</v>
       </c>
-      <c r="I32" t="n">
+      <c r="I38" t="n">
         <v>4.807692307692308</v>
       </c>
-      <c r="J32" t="n">
-        <v>0</v>
-      </c>
-      <c r="K32" t="n">
-        <v>0</v>
-      </c>
-      <c r="L32" t="n">
+      <c r="J38" t="n">
+        <v>0</v>
+      </c>
+      <c r="K38" t="n">
+        <v>0</v>
+      </c>
+      <c r="L38" t="n">
         <v>0.8241758241758242</v>
       </c>
-      <c r="M32" t="n">
-        <v>0</v>
-      </c>
-      <c r="N32" t="inlineStr">
+      <c r="M38" t="n">
+        <v>0</v>
+      </c>
+      <c r="N38" t="inlineStr">
         <is>
           <t>2025-01-21</t>
         </is>
       </c>
     </row>
-    <row r="33">
-      <c r="A33" t="inlineStr">
+    <row r="39">
+      <c r="A39" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@alya.lott/video/7461993806011829550</t>
         </is>
       </c>
-      <c r="B33" t="n">
+      <c r="B39" t="n">
         <v>2002</v>
       </c>
-      <c r="C33" t="n">
+      <c r="C39" t="n">
         <v>97</v>
       </c>
-      <c r="D33" t="n">
-        <v>0</v>
-      </c>
-      <c r="E33" t="n">
-        <v>0</v>
-      </c>
-      <c r="F33" t="n">
+      <c r="D39" t="n">
+        <v>0</v>
+      </c>
+      <c r="E39" t="n">
+        <v>0</v>
+      </c>
+      <c r="F39" t="n">
         <v>1</v>
       </c>
-      <c r="G33" t="inlineStr">
+      <c r="G39" t="inlineStr">
         <is>
           <t>am i wrong? 😑 #makeup #unpopularopinion #beauty</t>
         </is>
       </c>
-      <c r="H33" t="n">
+      <c r="H39" t="n">
         <v>4.845154845154845</v>
       </c>
-      <c r="I33" t="n">
+      <c r="I39" t="n">
         <v>4.845154845154845</v>
       </c>
-      <c r="J33" t="n">
-        <v>0</v>
-      </c>
-      <c r="K33" t="n">
-        <v>0</v>
-      </c>
-      <c r="L33" t="n">
+      <c r="J39" t="n">
+        <v>0</v>
+      </c>
+      <c r="K39" t="n">
+        <v>0</v>
+      </c>
+      <c r="L39" t="n">
         <v>0.04995004995004995</v>
       </c>
-      <c r="M33" t="n">
-        <v>0</v>
-      </c>
-      <c r="N33" t="inlineStr">
+      <c r="M39" t="n">
+        <v>0</v>
+      </c>
+      <c r="N39" t="inlineStr">
         <is>
           <t>2025-01-20</t>
         </is>
       </c>
     </row>
-    <row r="34">
-      <c r="A34" t="inlineStr">
+    <row r="40">
+      <c r="A40" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@alya.lott/video/7461710285527616814</t>
         </is>
       </c>
-      <c r="B34" t="n">
+      <c r="B40" t="n">
         <v>1300</v>
       </c>
-      <c r="C34" t="n">
+      <c r="C40" t="n">
         <v>59</v>
       </c>
-      <c r="D34" t="n">
+      <c r="D40" t="n">
         <v>1</v>
       </c>
-      <c r="E34" t="n">
-        <v>0</v>
-      </c>
-      <c r="F34" t="n">
+      <c r="E40" t="n">
+        <v>0</v>
+      </c>
+      <c r="F40" t="n">
         <v>3</v>
       </c>
-      <c r="G34" t="inlineStr">
+      <c r="G40" t="inlineStr">
         <is>
           <t>why did we panick. #tiktokisback #tiktokban</t>
         </is>
       </c>
-      <c r="H34" t="n">
+      <c r="H40" t="n">
         <v>4.615384615384616</v>
       </c>
-      <c r="I34" t="n">
+      <c r="I40" t="n">
         <v>4.538461538461538</v>
       </c>
-      <c r="J34" t="n">
-        <v>0</v>
-      </c>
-      <c r="K34" t="n">
+      <c r="J40" t="n">
+        <v>0</v>
+      </c>
+      <c r="K40" t="n">
         <v>0.07692307692307693</v>
       </c>
-      <c r="L34" t="n">
+      <c r="L40" t="n">
         <v>0.2307692307692308</v>
       </c>
-      <c r="M34" t="n">
-        <v>0</v>
-      </c>
-      <c r="N34" t="inlineStr">
+      <c r="M40" t="n">
+        <v>0</v>
+      </c>
+      <c r="N40" t="inlineStr">
         <is>
           <t>2025-01-20</t>
         </is>
       </c>
     </row>
-    <row r="35">
-      <c r="A35" t="inlineStr">
+    <row r="41">
+      <c r="A41" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@alya.lott/video/7461702167695543595</t>
         </is>
       </c>
-      <c r="B35" t="n">
+      <c r="B41" t="n">
         <v>7894</v>
       </c>
-      <c r="C35" t="n">
+      <c r="C41" t="n">
         <v>984</v>
       </c>
-      <c r="D35" t="n">
+      <c r="D41" t="n">
         <v>25</v>
       </c>
-      <c r="E35" t="n">
-        <v>0</v>
-      </c>
-      <c r="F35" t="n">
+      <c r="E41" t="n">
+        <v>0</v>
+      </c>
+      <c r="F41" t="n">
         <v>66</v>
       </c>
-      <c r="G35" t="inlineStr">
+      <c r="G41" t="inlineStr">
         <is>
           <t>the toughest 15 hours of my life #tiktokban #tiktokisback</t>
         </is>
       </c>
-      <c r="H35" t="n">
+      <c r="H41" t="n">
         <v>12.78185964023309</v>
       </c>
-      <c r="I35" t="n">
+      <c r="I41" t="n">
         <v>12.46516341525209</v>
       </c>
-      <c r="J35" t="n">
-        <v>0</v>
-      </c>
-      <c r="K35" t="n">
+      <c r="J41" t="n">
+        <v>0</v>
+      </c>
+      <c r="K41" t="n">
         <v>0.3166962249809983</v>
       </c>
-      <c r="L35" t="n">
+      <c r="L41" t="n">
         <v>0.8360780339498353</v>
       </c>
-      <c r="M35" t="n">
-        <v>0</v>
-      </c>
-      <c r="N35" t="inlineStr">
+      <c r="M41" t="n">
+        <v>0</v>
+      </c>
+      <c r="N41" t="inlineStr">
         <is>
           <t>2025-01-20</t>
         </is>
       </c>
     </row>
-    <row r="36">
-      <c r="A36" t="inlineStr">
+    <row r="42">
+      <c r="A42" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@alya.lott/video/7447624439203761451</t>
         </is>
       </c>
-      <c r="B36" t="n">
+      <c r="B42" t="n">
         <v>221600</v>
       </c>
-      <c r="C36" t="n">
+      <c r="C42" t="n">
         <v>984</v>
       </c>
-      <c r="D36" t="n">
+      <c r="D42" t="n">
         <v>25</v>
       </c>
-      <c r="E36" t="n">
-        <v>0</v>
-      </c>
-      <c r="F36" t="n">
+      <c r="E42" t="n">
+        <v>0</v>
+      </c>
+      <c r="F42" t="n">
         <v>66</v>
       </c>
-      <c r="G36" t="inlineStr">
+      <c r="G42" t="inlineStr">
         <is>
           <t>the toughest 15 hours of my life #tiktokban #tiktokisback</t>
         </is>
       </c>
-      <c r="H36" t="n">
+      <c r="H42" t="n">
         <v>0.4553249097472925</v>
       </c>
-      <c r="I36" t="n">
+      <c r="I42" t="n">
         <v>0.444043321299639</v>
       </c>
-      <c r="J36" t="n">
-        <v>0</v>
-      </c>
-      <c r="K36" t="n">
+      <c r="J42" t="n">
+        <v>0</v>
+      </c>
+      <c r="K42" t="n">
         <v>0.01128158844765343</v>
       </c>
-      <c r="L36" t="n">
+      <c r="L42" t="n">
         <v>0.02978339350180506</v>
       </c>
-      <c r="M36" t="n">
-        <v>0</v>
-      </c>
-      <c r="N36" t="inlineStr">
+      <c r="M42" t="n">
+        <v>0</v>
+      </c>
+      <c r="N42" t="inlineStr">
         <is>
           <t>2025-01-20</t>
         </is>
       </c>
     </row>
-    <row r="37">
-      <c r="A37" t="inlineStr">
+    <row r="43">
+      <c r="A43" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@alya.lott/video/7446501769838071086</t>
         </is>
       </c>
-      <c r="B37" t="n">
+      <c r="B43" t="n">
         <v>155300</v>
       </c>
-      <c r="C37" t="n">
+      <c r="C43" t="n">
         <v>8393</v>
       </c>
-      <c r="D37" t="n">
+      <c r="D43" t="n">
         <v>35</v>
       </c>
-      <c r="E37" t="n">
-        <v>0</v>
-      </c>
-      <c r="F37" t="n">
+      <c r="E43" t="n">
+        <v>0</v>
+      </c>
+      <c r="F43" t="n">
         <v>868</v>
       </c>
-      <c r="G37" t="inlineStr">
+      <c r="G43" t="inlineStr">
         <is>
           <t>i got them for like $70 they reduced the price😭 #tiktokshop #tiktokshopholidayhaul #tiktokshopsale</t>
         </is>
       </c>
-      <c r="H37" t="n">
+      <c r="H43" t="n">
         <v>5.426915647134578</v>
       </c>
-      <c r="I37" t="n">
+      <c r="I43" t="n">
         <v>5.404378622021893</v>
       </c>
-      <c r="J37" t="n">
-        <v>0</v>
-      </c>
-      <c r="K37" t="n">
+      <c r="J43" t="n">
+        <v>0</v>
+      </c>
+      <c r="K43" t="n">
         <v>0.02253702511268513</v>
       </c>
-      <c r="L37" t="n">
+      <c r="L43" t="n">
         <v>0.5589182227945911</v>
       </c>
-      <c r="M37" t="n">
-        <v>0</v>
-      </c>
-      <c r="N37" t="inlineStr">
+      <c r="M43" t="n">
+        <v>0</v>
+      </c>
+      <c r="N43" t="inlineStr">
         <is>
           <t>2024-12-13</t>
         </is>
       </c>
     </row>
-    <row r="38">
-      <c r="A38" t="inlineStr">
+    <row r="44">
+      <c r="A44" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@alya.lott/video/7444219008678710570</t>
         </is>
       </c>
-      <c r="B38" t="n">
+      <c r="B44" t="n">
         <v>80800</v>
       </c>
-      <c r="C38" t="n">
+      <c r="C44" t="n">
         <v>8781</v>
       </c>
-      <c r="D38" t="n">
+      <c r="D44" t="n">
         <v>58</v>
       </c>
-      <c r="E38" t="n">
-        <v>0</v>
-      </c>
-      <c r="F38" t="n">
+      <c r="E44" t="n">
+        <v>0</v>
+      </c>
+      <c r="F44" t="n">
         <v>320</v>
       </c>
-      <c r="G38" t="inlineStr">
+      <c r="G44" t="inlineStr">
         <is>
           <t>no need to spend all your money on christmas gifts this year #tiktokshopholidayhaul #tiktokshopsale #tiktokshop</t>
         </is>
       </c>
-      <c r="H38" t="n">
+      <c r="H44" t="n">
         <v>10.93935643564356</v>
       </c>
-      <c r="I38" t="n">
+      <c r="I44" t="n">
         <v>10.86757425742574</v>
       </c>
-      <c r="J38" t="n">
-        <v>0</v>
-      </c>
-      <c r="K38" t="n">
+      <c r="J44" t="n">
+        <v>0</v>
+      </c>
+      <c r="K44" t="n">
         <v>0.07178217821782178</v>
       </c>
-      <c r="L38" t="n">
+      <c r="L44" t="n">
         <v>0.3960396039603961</v>
       </c>
-      <c r="M38" t="n">
-        <v>0</v>
-      </c>
-      <c r="N38" t="inlineStr">
+      <c r="M44" t="n">
+        <v>0</v>
+      </c>
+      <c r="N44" t="inlineStr">
         <is>
           <t>2024-12-10</t>
         </is>
       </c>
     </row>
-    <row r="39">
-      <c r="A39" t="inlineStr">
+    <row r="45">
+      <c r="A45" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@alya.lott/video/7443991458819902762</t>
         </is>
       </c>
-      <c r="B39" t="n">
+      <c r="B45" t="n">
         <v>1100000</v>
       </c>
-      <c r="C39" t="n">
+      <c r="C45" t="n">
         <v>371</v>
       </c>
-      <c r="D39" t="n">
+      <c r="D45" t="n">
         <v>2</v>
       </c>
-      <c r="E39" t="n">
-        <v>0</v>
-      </c>
-      <c r="F39" t="n">
+      <c r="E45" t="n">
+        <v>0</v>
+      </c>
+      <c r="F45" t="n">
         <v>11</v>
       </c>
-      <c r="G39" t="inlineStr">
+      <c r="G45" t="inlineStr">
         <is>
           <t>$4 ARE YOU KIDDING ME #tiktokshop #tiktokshopsale #tiktokshopholidayhaul</t>
         </is>
       </c>
-      <c r="H39" t="n">
+      <c r="H45" t="n">
         <v>0.03390909090909091</v>
       </c>
-      <c r="I39" t="n">
+      <c r="I45" t="n">
         <v>0.03372727272727273</v>
       </c>
-      <c r="J39" t="n">
-        <v>0</v>
-      </c>
-      <c r="K39" t="n">
+      <c r="J45" t="n">
+        <v>0</v>
+      </c>
+      <c r="K45" t="n">
         <v>0.0001818181818181818</v>
       </c>
-      <c r="L39" t="n">
+      <c r="L45" t="n">
         <v>0.001</v>
       </c>
-      <c r="M39" t="n">
-        <v>0</v>
-      </c>
-      <c r="N39" t="inlineStr">
+      <c r="M45" t="n">
+        <v>0</v>
+      </c>
+      <c r="N45" t="inlineStr">
         <is>
           <t>2024-12-4</t>
         </is>
       </c>
     </row>
-    <row r="40">
-      <c r="A40" t="inlineStr">
+    <row r="46">
+      <c r="A46" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@alya.lott/video/7443965636025486638</t>
         </is>
       </c>
-      <c r="B40" t="n">
+      <c r="B46" t="n">
         <v>166900</v>
       </c>
-      <c r="C40" t="n">
+      <c r="C46" t="n">
         <v>32200</v>
       </c>
-      <c r="D40" t="n">
+      <c r="D46" t="n">
         <v>146</v>
       </c>
-      <c r="E40" t="n">
-        <v>0</v>
-      </c>
-      <c r="F40" t="n">
+      <c r="E46" t="n">
+        <v>0</v>
+      </c>
+      <c r="F46" t="n">
         <v>1753</v>
       </c>
-      <c r="G40" t="inlineStr">
+      <c r="G46" t="inlineStr">
         <is>
           <t>and free shipping?!?! #tiktokshop #tiktokshopcybermonday #tiktokshopblackfriday #theordinary</t>
         </is>
       </c>
-      <c r="H40" t="n">
+      <c r="H46" t="n">
         <v>19.380467345716</v>
       </c>
-      <c r="I40" t="n">
+      <c r="I46" t="n">
         <v>19.29298981426004</v>
       </c>
-      <c r="J40" t="n">
-        <v>0</v>
-      </c>
-      <c r="K40" t="n">
+      <c r="J46" t="n">
+        <v>0</v>
+      </c>
+      <c r="K46" t="n">
         <v>0.08747753145596165</v>
       </c>
-      <c r="L40" t="n">
+      <c r="L46" t="n">
         <v>1.050329538645896</v>
       </c>
-      <c r="M40" t="n">
-        <v>0</v>
-      </c>
-      <c r="N40" t="inlineStr">
+      <c r="M46" t="n">
+        <v>0</v>
+      </c>
+      <c r="N46" t="inlineStr">
         <is>
           <t>2024-12-3</t>
         </is>
       </c>
     </row>
-    <row r="41">
-      <c r="A41" t="inlineStr">
+    <row r="47">
+      <c r="A47" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@alya.lott/video/7443926768097955115</t>
         </is>
       </c>
-      <c r="B41" t="n">
+      <c r="B47" t="n">
         <v>190500</v>
       </c>
-      <c r="C41" t="n">
+      <c r="C47" t="n">
         <v>3850</v>
       </c>
-      <c r="D41" t="n">
+      <c r="D47" t="n">
         <v>10</v>
       </c>
-      <c r="E41" t="n">
-        <v>0</v>
-      </c>
-      <c r="F41" t="n">
+      <c r="E47" t="n">
+        <v>0</v>
+      </c>
+      <c r="F47" t="n">
         <v>191</v>
       </c>
-      <c r="G41" t="inlineStr">
+      <c r="G47" t="inlineStr">
         <is>
           <t>girl run it’s in low stock😭🫠 #tiktokshopcybermonday #tiktokshop #tiktokshopblackfriday</t>
         </is>
       </c>
-      <c r="H41" t="n">
+      <c r="H47" t="n">
         <v>2.026246719160105</v>
       </c>
-      <c r="I41" t="n">
+      <c r="I47" t="n">
         <v>2.020997375328084</v>
       </c>
-      <c r="J41" t="n">
-        <v>0</v>
-      </c>
-      <c r="K41" t="n">
+      <c r="J47" t="n">
+        <v>0</v>
+      </c>
+      <c r="K47" t="n">
         <v>0.005249343832020997</v>
       </c>
-      <c r="L41" t="n">
+      <c r="L47" t="n">
         <v>0.1002624671916011</v>
       </c>
-      <c r="M41" t="n">
-        <v>0</v>
-      </c>
-      <c r="N41" t="inlineStr">
+      <c r="M47" t="n">
+        <v>0</v>
+      </c>
+      <c r="N47" t="inlineStr">
         <is>
           <t>2024-12-3</t>
         </is>
       </c>
     </row>
-    <row r="42">
-      <c r="A42" t="inlineStr">
+    <row r="48">
+      <c r="A48" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@alya.lott/video/7443865300010880299</t>
         </is>
       </c>
-      <c r="B42" t="n">
+      <c r="B48" t="n">
         <v>2300000</v>
       </c>
-      <c r="C42" t="n">
+      <c r="C48" t="n">
         <v>18900</v>
       </c>
-      <c r="D42" t="n">
+      <c r="D48" t="n">
         <v>74</v>
       </c>
-      <c r="E42" t="n">
-        <v>0</v>
-      </c>
-      <c r="F42" t="n">
+      <c r="E48" t="n">
+        <v>0</v>
+      </c>
+      <c r="F48" t="n">
         <v>1828</v>
       </c>
-      <c r="G42" t="inlineStr">
+      <c r="G48" t="inlineStr">
         <is>
           <t>sale ends in 10 hours y’all ##tiktokshopcybermonday ##tiktokshopblackfriday ##tiktokshop</t>
         </is>
       </c>
-      <c r="H42" t="n">
+      <c r="H48" t="n">
         <v>0.8249565217391305</v>
       </c>
-      <c r="I42" t="n">
+      <c r="I48" t="n">
         <v>0.8217391304347825</v>
       </c>
-      <c r="J42" t="n">
-        <v>0</v>
-      </c>
-      <c r="K42" t="n">
+      <c r="J48" t="n">
+        <v>0</v>
+      </c>
+      <c r="K48" t="n">
         <v>0.003217391304347826</v>
       </c>
-      <c r="L42" t="n">
+      <c r="L48" t="n">
         <v>0.07947826086956522</v>
       </c>
-      <c r="M42" t="n">
-        <v>0</v>
-      </c>
-      <c r="N42" t="inlineStr">
+      <c r="M48" t="n">
+        <v>0</v>
+      </c>
+      <c r="N48" t="inlineStr">
         <is>
           <t>2024-12-3</t>
         </is>
       </c>
     </row>
-    <row r="43">
-      <c r="A43" t="inlineStr">
+    <row r="49">
+      <c r="A49" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@alya.lott/video/7442833735474613550</t>
         </is>
       </c>
-      <c r="B43" t="n">
+      <c r="B49" t="n">
         <v>7254</v>
       </c>
-      <c r="C43" t="n">
+      <c r="C49" t="n">
         <v>90200</v>
       </c>
-      <c r="D43" t="n">
+      <c r="D49" t="n">
         <v>399</v>
       </c>
-      <c r="E43" t="n">
-        <v>0</v>
-      </c>
-      <c r="F43" t="n">
+      <c r="E49" t="n">
+        <v>0</v>
+      </c>
+      <c r="F49" t="n">
         <v>10200</v>
       </c>
-      <c r="G43" t="inlineStr">
+      <c r="G49" t="inlineStr">
         <is>
           <t>runn it’s in low stock and on huge sale! #tiktokshopblackfriday #tiktokshop</t>
         </is>
       </c>
-      <c r="H43" t="n">
+      <c r="H49" t="n">
         <v>1248.952302178109</v>
       </c>
-      <c r="I43" t="n">
+      <c r="I49" t="n">
         <v>1243.451888613179</v>
       </c>
-      <c r="J43" t="n">
-        <v>0</v>
-      </c>
-      <c r="K43" t="n">
+      <c r="J49" t="n">
+        <v>0</v>
+      </c>
+      <c r="K49" t="n">
         <v>5.500413564929694</v>
       </c>
-      <c r="L43" t="n">
+      <c r="L49" t="n">
         <v>140.6120760959471</v>
       </c>
-      <c r="M43" t="n">
-        <v>0</v>
-      </c>
-      <c r="N43" t="inlineStr">
+      <c r="M49" t="n">
+        <v>0</v>
+      </c>
+      <c r="N49" t="inlineStr">
         <is>
           <t>2024-12-3</t>
         </is>
       </c>
     </row>
-    <row r="44">
-      <c r="A44" t="inlineStr">
+    <row r="50">
+      <c r="A50" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@alya.lott/video/7442815750655593771</t>
         </is>
       </c>
-      <c r="B44" t="n">
+      <c r="B50" t="n">
         <v>678100</v>
       </c>
-      <c r="C44" t="n">
+      <c r="C50" t="n">
         <v>30</v>
       </c>
-      <c r="D44" t="n">
-        <v>0</v>
-      </c>
-      <c r="E44" t="n">
-        <v>0</v>
-      </c>
-      <c r="F44" t="n">
+      <c r="D50" t="n">
+        <v>0</v>
+      </c>
+      <c r="E50" t="n">
+        <v>0</v>
+      </c>
+      <c r="F50" t="n">
         <v>3</v>
       </c>
-      <c r="G44" t="inlineStr">
+      <c r="G50" t="inlineStr">
         <is>
           <t>I JUST GIT IT FOR $113 A WEEK AGO AND THOUGHT IT WAS A STEAL CUZ ITS NORMALLY $200+ AT THE STORE😭</t>
         </is>
       </c>
-      <c r="H44" t="n">
+      <c r="H50" t="n">
         <v>0.004424126235068574</v>
       </c>
-      <c r="I44" t="n">
+      <c r="I50" t="n">
         <v>0.004424126235068574</v>
       </c>
-      <c r="J44" t="n">
-        <v>0</v>
-      </c>
-      <c r="K44" t="n">
-        <v>0</v>
-      </c>
-      <c r="L44" t="n">
+      <c r="J50" t="n">
+        <v>0</v>
+      </c>
+      <c r="K50" t="n">
+        <v>0</v>
+      </c>
+      <c r="L50" t="n">
         <v>0.0004424126235068574</v>
       </c>
-      <c r="M44" t="n">
-        <v>0</v>
-      </c>
-      <c r="N44" t="inlineStr">
+      <c r="M50" t="n">
+        <v>0</v>
+      </c>
+      <c r="N50" t="inlineStr">
         <is>
           <t>2024-11-30</t>
         </is>
       </c>
     </row>
-    <row r="45">
-      <c r="A45" t="inlineStr">
+    <row r="51">
+      <c r="A51" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@alya.lott/video/7442029487933443374</t>
         </is>
       </c>
-      <c r="B45" t="n">
+      <c r="B51" t="n">
         <v>1300000</v>
       </c>
-      <c r="C45" t="n">
+      <c r="C51" t="n">
         <v>2661</v>
       </c>
-      <c r="D45" t="n">
+      <c r="D51" t="n">
         <v>18</v>
       </c>
-      <c r="E45" t="n">
-        <v>0</v>
-      </c>
-      <c r="F45" t="n">
+      <c r="E51" t="n">
+        <v>0</v>
+      </c>
+      <c r="F51" t="n">
         <v>97</v>
       </c>
-      <c r="G45" t="inlineStr">
+      <c r="G51" t="inlineStr">
         <is>
           <t>the deal ends tmr y’all #tiktokshopcybermonday #tiktokshop #tarte #tiktokshopblackfriday</t>
         </is>
       </c>
-      <c r="H45" t="n">
+      <c r="H51" t="n">
         <v>0.206076923076923</v>
       </c>
-      <c r="I45" t="n">
+      <c r="I51" t="n">
         <v>0.2046923076923077</v>
       </c>
-      <c r="J45" t="n">
-        <v>0</v>
-      </c>
-      <c r="K45" t="n">
+      <c r="J51" t="n">
+        <v>0</v>
+      </c>
+      <c r="K51" t="n">
         <v>0.001384615384615385</v>
       </c>
-      <c r="L45" t="n">
+      <c r="L51" t="n">
         <v>0.007461538461538461</v>
       </c>
-      <c r="M45" t="n">
-        <v>0</v>
-      </c>
-      <c r="N45" t="inlineStr">
+      <c r="M51" t="n">
+        <v>0</v>
+      </c>
+      <c r="N51" t="inlineStr">
         <is>
           <t>2024-11-30</t>
         </is>
